--- a/AssignmentReadCSV.xlsx
+++ b/AssignmentReadCSV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fd37f19495b00846/Documents/Tunghai/Semester 3/Program Design/13032023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{01831B8D-17BF-4E4D-8002-7C5251946C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D08A56A-0E18-4823-AC28-54BB7CD3AE18}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{01831B8D-17BF-4E4D-8002-7C5251946C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D32421-E251-4C34-8949-19072C2715A5}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{08421000-C3B1-413A-AEF7-4917E2DABC89}"/>
   </bookViews>
@@ -173,6 +173,10 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -476,7 +480,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,18 +519,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
